--- a/SampleInputs/Parameters-Participants.xlsx
+++ b/SampleInputs/Parameters-Participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/xdevelopment/birding/DistributedBirding/data/external/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/xdevelopment/birding/DistributedBirding/SampleInputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B368D3E-F244-514A-83A4-89801E8F5116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C539C-3C78-4142-B37B-DA6640290E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20860" yWindow="8700" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>Minna Hall</t>
-  </si>
-  <si>
     <t>Alexander Wilson</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Thomas Nuttall</t>
+  </si>
+  <si>
+    <t>Frances Hamerstrom</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -483,17 +483,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
